--- a/00.要件/WonFesSys.xlsx
+++ b/00.要件/WonFesSys.xlsx
@@ -3323,7 +3323,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,7 +3389,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,7 +3450,7 @@
         <xdr:cNvPr id="3" name="上下矢印 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3510,7 @@
         <xdr:cNvPr id="4" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
         <xdr:cNvPr id="7" name="フローチャート : 磁気ディスク 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3638,7 +3638,7 @@
         <xdr:cNvPr id="8" name="上下矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="9" name="右矢印 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3763,7 @@
         <xdr:cNvPr id="4" name="線吹き出し 1 (枠付き) 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3839,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3892,7 +3892,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3945,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3998,7 +3998,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4051,7 @@
         <xdr:cNvPr id="14" name="線吹き出し 1 (枠付き) 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4127,7 +4127,7 @@
         <xdr:cNvPr id="15" name="線吹き出し 1 (枠付き) 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4348,7 +4348,7 @@
         <xdr:cNvPr id="3" name="線吹き出し 1 (枠付き) 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4426,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +4479,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4532,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4585,7 @@
         <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,7 +4638,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4691,7 +4691,7 @@
         <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4744,7 +4744,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4797,7 +4797,7 @@
         <xdr:cNvPr id="31" name="線吹き出し 1 (枠付き) 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4920,7 +4920,7 @@
         <xdr:cNvPr id="32" name="線吹き出し 1 (枠付き) 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5017,7 +5017,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5070,7 +5070,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6895,6 +6895,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7264,7 +7265,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7360,7 +7362,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7376,6 +7379,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7422,6 +7426,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8519,6 +8524,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8662,6 +8668,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8777,6 +8784,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8982,6 +8990,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9577,5 +9586,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>